--- a/CSP Info.xlsx
+++ b/CSP Info.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbd7a898691975bd/Fondy/PLTW Comp Science/1.3.9/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\LukasLarson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{046F0369-53F7-47CE-9C0D-957617029773}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB858B15-BA23-42E0-A3C7-72AC62FB6469}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>9th  Hour - CSP</t>
   </si>
@@ -121,12 +120,18 @@
   </si>
   <si>
     <t>Favorite Pizza Toppings</t>
+  </si>
+  <si>
+    <t>I'm Lactose intolerant</t>
+  </si>
+  <si>
+    <t>Still Lactose intolerant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -252,15 +257,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{704A3FF9-1647-443F-B3A1-158AC2DAF9EF}" name="Table6" displayName="Table6" ref="A3:F15" totalsRowShown="0">
-  <autoFilter ref="A3:F15" xr:uid="{BFD916B4-E62B-46AE-BADD-CBCCFA3202C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table6" displayName="Table6" ref="A3:F15" totalsRowShown="0">
+  <autoFilter ref="A3:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{106E38F3-AF6C-411E-A87E-106C19F1EC44}" name="Count" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{22A47EAC-65BC-4280-B076-729722A8D847}" name="First Name"/>
-    <tableColumn id="3" xr3:uid="{1147E32B-4FE1-40A5-8393-B4A2FF60894C}" name="Last Name"/>
-    <tableColumn id="4" xr3:uid="{898FAD28-6240-4466-ABAD-4A78959A9D5F}" name="Grade"/>
-    <tableColumn id="6" xr3:uid="{6212D79B-039B-4DEC-B8A0-5207200271C1}" name="Favorite Ice Cream"/>
-    <tableColumn id="7" xr3:uid="{EF3CBEAF-66C6-4353-ABEC-45984F25FF7D}" name="Favorite Pizza Toppings"/>
+    <tableColumn id="1" name="Count" dataDxfId="0"/>
+    <tableColumn id="2" name="First Name"/>
+    <tableColumn id="3" name="Last Name"/>
+    <tableColumn id="4" name="Grade"/>
+    <tableColumn id="6" name="Favorite Ice Cream"/>
+    <tableColumn id="7" name="Favorite Pizza Toppings"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -562,32 +567,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C78A7C7-6910-4F20-B590-7DA67FB78845}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="4"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="4"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -607,7 +612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -621,7 +626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -635,7 +640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -649,7 +654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -663,7 +668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -677,7 +682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -691,7 +696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -705,7 +710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -719,7 +724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -732,8 +737,14 @@
       <c r="D12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -747,7 +758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -761,7 +772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -775,7 +786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16"/>
     </row>
   </sheetData>
